--- a/biology/Zoologie/Euproctis/Euproctis.xlsx
+++ b/biology/Zoologie/Euproctis/Euproctis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euproctis est un genre de lépidoptères (papillons) de la famille des Erebidae et de la sous-famille des Lymantriinae. Ses chenilles peuvent causer d'importants dégâts aux feuillus. 
 </t>
@@ -511,29 +523,100 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Euproctis a été décrit par l'entomologiste allemand Jakob Hübner en 1819[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Euproctis a été décrit par l'entomologiste allemand Jakob Hübner en 1819
 Son espèce type est Euproctis chrysorrhoea (Linnaeus, 1758).
-Synonymes
-Leucoma Hübner, 1806[2] Attention Leucoma Hübner, 1822 est un genre valide[3].
-Porthesia Stephens, 1828 [4]
-Dulichia Walker, 1855[5]
-Lopera Walker, 1855[6]
-Urocoma Herrich-Schäffer, 1858[7]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Euproctis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euproctis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Leucoma Hübner, 1806 Attention Leucoma Hübner, 1822 est un genre valide.
+Porthesia Stephens, 1828 
+Dulichia Walker, 1855
+Lopera Walker, 1855
+Urocoma Herrich-Schäffer, 1858
 Ela Walker, 1862
-Cataphractes Felder, 1874[8]
-Tearosoma Felder, 1874[9]
-Pygetera Kirby, 1892[10]
-Euproctilla Aurivillius, 1904[11]
-Euproctillina Hering, 1926[12]
-Euproctillopsis Hering, 1926[13]
+Cataphractes Felder, 1874
+Tearosoma Felder, 1874
+Pygetera Kirby, 1892
+Euproctilla Aurivillius, 1904
+Euproctillina Hering, 1926
+Euproctillopsis Hering, 1926
 Meteuproctis Matsumura, 1927
-Knappetra Nye, 1980[14]
-Sphrageidus Maes, 1984[15]
-Viettema Griveaud, 1977[16]
-Taxinomie
-Liste des espèces
+Knappetra Nye, 1980
+Sphrageidus Maes, 1984
+Viettema Griveaud, 1977</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Euproctis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euproctis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Liste des espèces
 Euproctis apoblepta Collenette, 1953
 Euproctis acatharta Turner, 1906
 Euproctis acrita Joicey &amp; Talbot, 1917
@@ -679,7 +762,7 @@
 Euproctis yulei Bethune-Baker, 1904
 Euproctis zorodes Collenette, 1955
 Liste d'espèces rencontrées en Europe
-Selon Fauna Europaea                                      (9 février 2014)[17]
+Selon Fauna Europaea                                      (9 février 2014)
 Euproctis (Euproctis) chrysorrhoea (Linnaeus, 1758) - Bombyx cul brun
 Euproctis (Sphrageidus) similis (Fuessly, 1775) -  Bombyx cul doré</t>
         </is>
